--- a/catalogos.xlsx
+++ b/catalogos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Junior\SistemaBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Junior\JusFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
   <si>
     <t>CODIGO</t>
   </si>
@@ -236,6 +236,39 @@
   </si>
   <si>
     <t>Cuando no existe ningun origen de datos, Ej: llenar los datos directamente</t>
+  </si>
+  <si>
+    <t>GENERO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>ESTADOCIVIL</t>
+  </si>
+  <si>
+    <t>GÉNERO</t>
+  </si>
+  <si>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t>CASADO</t>
+  </si>
+  <si>
+    <t>DIVORCIADO</t>
+  </si>
+  <si>
+    <t>UNIONLIBRE</t>
+  </si>
+  <si>
+    <t>VIUDO</t>
+  </si>
+  <si>
+    <t>UNIÓN LIBRE</t>
   </si>
 </sst>
 </file>
@@ -577,16 +610,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,6 +752,34 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -729,10 +791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1245,132 @@
         <v>call prc_ins_catalogo('ORIGENDATOSTI','TIPO DE ORIGEN DE DATOS','TIPO DE ORIGEN DE DATOS','N','','','NINGUNO','NINGUNO','Cuando no existe ningun origen de datos, Ej: llenar los datos directamente');</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D26,"','",VLOOKUP(D26,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D26,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D26,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D26,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D26,CATALOGO!A:F,6,FALSE),"','",A26,"','",B26,"','",C26,"');")</f>
+        <v>call prc_ins_catalogo('GENERO','GÉNERO','GÉNERO','N','','','MASCULINO','MASCULINO','MASCULINO');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D27,"','",VLOOKUP(D27,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D27,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D27,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D27,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D27,CATALOGO!A:F,6,FALSE),"','",A27,"','",B27,"','",C27,"');")</f>
+        <v>call prc_ins_catalogo('GENERO','GÉNERO','GÉNERO','N','','','FEMENINO','FEMENINO','FEMENINO');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D28,"','",VLOOKUP(D28,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D28,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D28,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D28,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D28,CATALOGO!A:F,6,FALSE),"','",A28,"','",B28,"','",C28,"');")</f>
+        <v>call prc_ins_catalogo('ESTADOCIVIL','ESTADOCIVIL','ESTADOCIVIL','N','','','SOLTERO','SOLTERO','SOLTERO');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D29,"','",VLOOKUP(D29,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D29,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D29,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D29,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D29,CATALOGO!A:F,6,FALSE),"','",A29,"','",B29,"','",C29,"');")</f>
+        <v>call prc_ins_catalogo('ESTADOCIVIL','ESTADOCIVIL','ESTADOCIVIL','N','','','CASADO','CASADO','CASADO');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D30,"','",VLOOKUP(D30,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D30,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D30,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D30,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D30,CATALOGO!A:F,6,FALSE),"','",A30,"','",B30,"','",C30,"');")</f>
+        <v>call prc_ins_catalogo('ESTADOCIVIL','ESTADOCIVIL','ESTADOCIVIL','N','','','DIVORCIADO','DIVORCIADO','DIVORCIADO');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D31,"','",VLOOKUP(D31,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D31,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D31,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D31,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D31,CATALOGO!A:F,6,FALSE),"','",A31,"','",B31,"','",C31,"');")</f>
+        <v>call prc_ins_catalogo('ESTADOCIVIL','ESTADOCIVIL','ESTADOCIVIL','N','','','UNIONLIBRE','UNIÓN LIBRE','UNIÓN LIBRE');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D32,"','",VLOOKUP(D32,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D32,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D32,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D32,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D32,CATALOGO!A:F,6,FALSE),"','",A32,"','",B32,"','",C32,"');")</f>
+        <v>call prc_ins_catalogo('ESTADOCIVIL','ESTADOCIVIL','ESTADOCIVIL','N','','','VIUDO','VIUDO','VIUDO');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/catalogos.xlsx
+++ b/catalogos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>CODIGO</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t>UNIÓN LIBRE</t>
+  </si>
+  <si>
+    <t>PERSONATIPO</t>
+  </si>
+  <si>
+    <t>TIPO DE PERSONA</t>
+  </si>
+  <si>
+    <t>PERNATURAL</t>
+  </si>
+  <si>
+    <t>PERJURIDICA</t>
+  </si>
+  <si>
+    <t>PERSONA NATURAL</t>
+  </si>
+  <si>
+    <t>PERSONA JURIDICA</t>
   </si>
 </sst>
 </file>
@@ -610,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,6 +801,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -791,10 +823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="A33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,6 +1403,42 @@
         <v>call prc_ins_catalogo('ESTADOCIVIL','ESTADOCIVIL','ESTADOCIVIL','N','','','VIUDO','VIUDO','VIUDO');</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D33,"','",VLOOKUP(D33,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D33,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D33,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D33,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D33,CATALOGO!A:F,6,FALSE),"','",A33,"','",B33,"','",C33,"');")</f>
+        <v>call prc_ins_catalogo('PERSONATIPO','TIPO DE PERSONA','TIPO DE PERSONA','N','','','PERNATURAL','PERSONA NATURAL','PERSONA NATURAL');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="str">
+        <f>CONCATENATE("call prc_ins_catalogo('",D34,"','",VLOOKUP(D34,CATALOGO!A:E,2,FALSE),"','",VLOOKUP(D34,CATALOGO!A:E,3,FALSE),"','",VLOOKUP(D34,CATALOGO!A:E,4,FALSE),"','",VLOOKUP(D34,CATALOGO!A:E,5,FALSE),"','",VLOOKUP(D34,CATALOGO!A:F,6,FALSE),"','",A34,"','",B34,"','",C34,"');")</f>
+        <v>call prc_ins_catalogo('PERSONATIPO','TIPO DE PERSONA','TIPO DE PERSONA','N','','','PERJURIDICA','PERSONA JURIDICA','PERSONA JURIDICA');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/catalogos.xlsx
+++ b/catalogos.xlsx
@@ -826,7 +826,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="A33:D34"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
